--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_3/bcw_train_60_test_40_depth_3_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_3/bcw_train_60_test_40_depth_3_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9634146341463414</v>
+        <v>0.9161290322580645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9294117647058824</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9461077844311377</v>
+        <v>0.9530201342281879</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.958904109589041</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.8470588235294118</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9688581314878892</v>
+        <v>0.9113924050632911</v>
       </c>
       <c r="E3" t="n">
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9385964912280702</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9611593718676912</v>
+        <v>0.951215201060539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9542163718634307</v>
+        <v>0.9200329082682024</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9574829579595134</v>
+        <v>0.9322062696457395</v>
       </c>
       <c r="E5" t="n">
         <v>228</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9605856647968066</v>
+        <v>0.9422897721546465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="D6" t="n">
-        <v>0.960376642453574</v>
+        <v>0.9375010246710992</v>
       </c>
       <c r="E6" t="n">
         <v>228</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_3/bcw_train_60_test_40_depth_3_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_3/bcw_train_60_test_40_depth_3_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9161290322580645</v>
+        <v>0.92</v>
       </c>
       <c r="C2" t="n">
-        <v>0.993006993006993</v>
+        <v>0.99</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9530201342281879</v>
+        <v>0.95</v>
       </c>
       <c r="E2" t="n">
         <v>143</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.99</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8470588235294118</v>
+        <v>0.85</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9113924050632911</v>
+        <v>0.91</v>
       </c>
       <c r="E3" t="n">
         <v>85</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9385964912280702</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9385964912280702</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9385964912280702</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.951215201060539</v>
+        <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9200329082682024</v>
+        <v>0.92</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9322062696457395</v>
+        <v>0.93</v>
       </c>
       <c r="E5" t="n">
         <v>228</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9422897721546465</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9375010246710992</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>228</v>
